--- a/biology/Médecine/Charles_River/Charles_River.xlsx
+++ b/biology/Médecine/Charles_River/Charles_River.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Charles River est une entreprise américaine fondée en 1947 spécialisée dans l'élevage et la vente d'animaux de laboratoire.
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fondée en 1947 par le docteur Henry Foster au bord de la rivière Charles de Boston[2], l'entreprise se spécialise dans l'élevage d'animaux destinés à la recherche clinique[3].
-Elle est implantée en France sur la commune de Saint-Germain-Nuelles, dans le Rhône[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fondée en 1947 par le docteur Henry Foster au bord de la rivière Charles de Boston, l'entreprise se spécialise dans l'élevage d'animaux destinés à la recherche clinique.
+Elle est implantée en France sur la commune de Saint-Germain-Nuelles, dans le Rhône,.
 De plus, l'entreprise est également implantée à Romans dans l'Ain (01) et à Miserey dans l'Eure (27).
 </t>
         </is>
